--- a/Gerbers/BOM.xlsx
+++ b/Gerbers/BOM.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Angrypig\Dev\ESP8266EX-custom-board\Gerbers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{AC4C5E6E-DEA3-43B1-B5F8-684DDE5C4AE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D112E5EC-58A4-4BF9-9709-D17C5172EAD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="13215"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -241,15 +241,9 @@
     <t>U2</t>
   </si>
   <si>
-    <t>CH340G</t>
-  </si>
-  <si>
     <t>SOIC16</t>
   </si>
   <si>
-    <t>C14267</t>
-  </si>
-  <si>
     <t>U3</t>
   </si>
   <si>
@@ -293,12 +287,18 @@
   </si>
   <si>
     <t>LCSC Part #</t>
+  </si>
+  <si>
+    <t>C84681</t>
+  </si>
+  <si>
+    <t>CH340C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1132,11 +1132,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1149,16 +1149,16 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" t="s">
         <v>87</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>88</v>
-      </c>
-      <c r="D2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
@@ -1600,58 +1600,59 @@
         <v>72</v>
       </c>
       <c r="C34" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" t="s">
         <v>73</v>
       </c>
-      <c r="D34" t="s">
-        <v>74</v>
-      </c>
       <c r="E34" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35" t="s">
         <v>76</v>
-      </c>
-      <c r="C35" t="s">
-        <v>77</v>
-      </c>
-      <c r="D35" t="s">
-        <v>77</v>
-      </c>
-      <c r="E35" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" t="s">
         <v>79</v>
       </c>
-      <c r="C36" t="s">
+      <c r="E36" t="s">
         <v>80</v>
-      </c>
-      <c r="D36" t="s">
-        <v>81</v>
-      </c>
-      <c r="E36" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" t="s">
         <v>83</v>
       </c>
-      <c r="C37" t="s">
+      <c r="E37" t="s">
         <v>84</v>
-      </c>
-      <c r="D37" t="s">
-        <v>85</v>
-      </c>
-      <c r="E37" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>